--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B4410-F18E-4DBC-9F71-D4677A044373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309E6DF-7E26-4FD1-8F5D-7B903FEC390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="60">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>lastDispenseDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジルバ錠40mg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -683,7 +687,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309E6DF-7E26-4FD1-8F5D-7B903FEC390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024908FB-EEB2-4402-B679-C4660C27ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="facilityInformation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="72">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -223,6 +227,66 @@
     <t>アジルバ錠40mg</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>facilityNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>telNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faxNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hpAdress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>permitNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0149898989</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区天神</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フクオカシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>092-1234-5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>092-1234-5679</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +321,14 @@
       <color rgb="FF212B36"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -298,12 +370,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,8 +406,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C569698-0060-46E3-887C-AFB1CD391720}">
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A352" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C363" activeCellId="40" sqref="C34 C37 C41 C45 C49 C53 C57 C61 C65 C69 C73 C77 C81 C85 C89 C91 C102 C110 C121 C130 C141 C146 C155 C167 C177 C189 C200 C212 C223 C235 C247 C259 C271 C283 C294 C306 C317 C328 C340 C352 C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9239,4 +9324,678 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE07B90-5436-48FE-A455-AF553B34DADC}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>8100001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>8100001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>8100001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>8100001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>8100001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>8100001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>8100001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>8100001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>8100001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>8100001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>8100001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>8100001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>8100001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>8100001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>8100001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>8100001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>8100001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>8100001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>8100001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>8100001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>8100001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>8100001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>8100001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{4E0C9B7E-4C6E-4E9D-B276-90ED34248F13}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{FBB02471-B2ED-435D-BDE5-D0FE9893493A}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{57BC9954-8872-4E4A-929A-8E65C9B7E81F}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{DBBA4437-8B6B-44F5-BCEA-FFF8C3698352}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{ADBB9A70-339B-4E8F-86D8-BAAD9EAC58F7}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{E36299F4-32DE-437D-8F33-26E4DD565FFF}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{AE7D1B51-5F0A-4F85-94B3-B0FB9AF7BBDE}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{6702AEB7-DD4E-47C8-8B62-EF584B1A5BA1}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{63312ECA-15A7-4022-AB71-1EE08D087A84}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{DCE9321A-1E73-41A8-BA2D-4EDAB71DAE82}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{D8A61E60-6D61-488B-A1F2-B513812DA4F0}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{B01C9482-FC7E-41AE-8A15-533414ED7177}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{DBA1A5CF-6344-4CE4-AB2D-FC82800A5B30}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{11DC839F-C069-4584-B112-6E701F6BB943}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{0AA82084-EF5F-41A3-B586-851C5DEEA249}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{17E8E314-CC16-4232-9D35-025CAF65BC2D}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{A98C629F-DC90-40C9-97DB-CC1B84C529B0}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{8D779A8C-FD3D-4358-BF34-2E647FBD4179}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{08E49D38-2040-48C7-A4BF-DA7B2225E8F9}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{ED1A8ABB-6052-4F6F-A9B9-AB0838F2F06D}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{B1A7A6D1-EFFA-40DC-9F79-1E90499851B8}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{DE6203F1-1CA3-43BF-AE88-F57DD7692BA3}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{D22C86CA-6AD5-4546-824A-8A052F9D57C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024908FB-EEB2-4402-B679-C4660C27ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEF53E-00F2-4B4A-9E55-B5BA5DA2C9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -236,19 +236,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>adress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>telNumber</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>faxNumber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hpAdress</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -285,6 +277,14 @@
   </si>
   <si>
     <t>https://example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hpAddress</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9331,7 +9331,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9356,19 +9356,19 @@
         <v>61</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -9376,22 +9376,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>8100001</v>
       </c>
       <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H2">
         <v>12345678</v>
@@ -9402,22 +9402,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>8100001</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H3">
         <v>12345678</v>
@@ -9428,22 +9428,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>8100001</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H4">
         <v>12345678</v>
@@ -9454,22 +9454,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>8100001</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H5">
         <v>12345678</v>
@@ -9480,22 +9480,22 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>8100001</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H6">
         <v>12345678</v>
@@ -9506,22 +9506,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>8100001</v>
       </c>
       <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H7">
         <v>12345678</v>
@@ -9532,22 +9532,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>8100001</v>
       </c>
       <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H8">
         <v>12345678</v>
@@ -9558,22 +9558,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>8100001</v>
       </c>
       <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H9">
         <v>12345678</v>
@@ -9584,22 +9584,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>8100001</v>
       </c>
       <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H10">
         <v>12345678</v>
@@ -9610,22 +9610,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>8100001</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H11">
         <v>12345678</v>
@@ -9636,22 +9636,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>8100001</v>
       </c>
       <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H12">
         <v>12345678</v>
@@ -9662,22 +9662,22 @@
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>8100001</v>
       </c>
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H13">
         <v>12345678</v>
@@ -9688,22 +9688,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>8100001</v>
       </c>
       <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H14">
         <v>12345678</v>
@@ -9714,22 +9714,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>8100001</v>
       </c>
       <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H15">
         <v>12345678</v>
@@ -9740,22 +9740,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>8100001</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H16">
         <v>12345678</v>
@@ -9766,22 +9766,22 @@
         <v>26</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>8100001</v>
       </c>
       <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H17">
         <v>12345678</v>
@@ -9792,22 +9792,22 @@
         <v>20</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>8100001</v>
       </c>
       <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H18">
         <v>12345678</v>
@@ -9818,22 +9818,22 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>8100001</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H19">
         <v>12345678</v>
@@ -9844,22 +9844,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>8100001</v>
       </c>
       <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H20">
         <v>12345678</v>
@@ -9870,22 +9870,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>8100001</v>
       </c>
       <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H21">
         <v>12345678</v>
@@ -9896,22 +9896,22 @@
         <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>8100001</v>
       </c>
       <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H22">
         <v>12345678</v>
@@ -9922,22 +9922,22 @@
         <v>12</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>8100001</v>
       </c>
       <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
         <v>68</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H23">
         <v>12345678</v>
@@ -9948,22 +9948,22 @@
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>8100001</v>
       </c>
       <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H24">
         <v>12345678</v>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEF53E-00F2-4B4A-9E55-B5BA5DA2C9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE733A-EF79-4D19-B6CE-9F1E0FBB06A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="96">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -286,6 +286,79 @@
   <si>
     <t>hpAddress</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unipueId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z5T6HEMJvYyp</t>
+  </si>
+  <si>
+    <t>EgF5HshsdXEc</t>
+  </si>
+  <si>
+    <t>ybfhTeD9BDrS</t>
+  </si>
+  <si>
+    <t>59k8jqtjfvvJ</t>
+  </si>
+  <si>
+    <t>9L8seTyVB3uH</t>
+  </si>
+  <si>
+    <t>p3guFFcPcCQv</t>
+  </si>
+  <si>
+    <t>XMBWAbH8g8U8</t>
+  </si>
+  <si>
+    <t>YtNxTfiwk4Ci</t>
+  </si>
+  <si>
+    <t>J9EK5HL8PDp9</t>
+  </si>
+  <si>
+    <t>xjy3NJ2YwptD</t>
+  </si>
+  <si>
+    <t>3Xhu5wz9YHvz</t>
+  </si>
+  <si>
+    <t>MCUsHG2ztSqC</t>
+  </si>
+  <si>
+    <t>tGp45JvCeKhg</t>
+  </si>
+  <si>
+    <t>gFEyMcDKzm7e</t>
+  </si>
+  <si>
+    <t>V2RtfqBfQHTT</t>
+  </si>
+  <si>
+    <t>AMCUyKrzr528</t>
+  </si>
+  <si>
+    <t>77FirL8hWhRF</t>
+  </si>
+  <si>
+    <t>apJDwgy2qHNB</t>
+  </si>
+  <si>
+    <t>MWce2h5Tdn2y</t>
+  </si>
+  <si>
+    <t>PKYU5W4sADLg</t>
+  </si>
+  <si>
+    <t>pDe2D8SrE7Cp</t>
+  </si>
+  <si>
+    <t>RDRb9JyjFYNu</t>
+  </si>
+  <si>
+    <t>xv8MfvwqxNdb</t>
   </si>
 </sst>
 </file>
@@ -9328,10 +9401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE07B90-5436-48FE-A455-AF553B34DADC}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9343,9 +9416,10 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -9370,8 +9444,11 @@
       <c r="H1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -9396,8 +9473,11 @@
       <c r="H2">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -9422,8 +9502,11 @@
       <c r="H3">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -9448,8 +9531,11 @@
       <c r="H4">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -9474,8 +9560,11 @@
       <c r="H5">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -9500,8 +9589,11 @@
       <c r="H6">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -9526,8 +9618,11 @@
       <c r="H7">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -9552,8 +9647,11 @@
       <c r="H8">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -9578,8 +9676,11 @@
       <c r="H9">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -9604,8 +9705,11 @@
       <c r="H10">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -9630,8 +9734,11 @@
       <c r="H11">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -9656,8 +9763,11 @@
       <c r="H12">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -9682,8 +9792,11 @@
       <c r="H13">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -9708,8 +9821,11 @@
       <c r="H14">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -9734,8 +9850,11 @@
       <c r="H15">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9760,8 +9879,11 @@
       <c r="H16">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -9786,8 +9908,11 @@
       <c r="H17">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -9812,8 +9937,11 @@
       <c r="H18">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -9838,8 +9966,11 @@
       <c r="H19">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -9864,8 +9995,11 @@
       <c r="H20">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -9890,8 +10024,11 @@
       <c r="H21">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -9916,8 +10053,11 @@
       <c r="H22">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9942,8 +10082,11 @@
       <c r="H23">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -9967,6 +10110,9 @@
       </c>
       <c r="H24">
         <v>12345678</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE733A-EF79-4D19-B6CE-9F1E0FBB06A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81575D7-0B57-4360-B61F-2686487323E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>unipueId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>z5T6HEMJvYyp</t>
   </si>
   <si>
@@ -359,6 +355,10 @@
   </si>
   <si>
     <t>xv8MfvwqxNdb</t>
+  </si>
+  <si>
+    <t>uniqueId</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C569698-0060-46E3-887C-AFB1CD391720}">
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="A214" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="C363" activeCellId="40" sqref="C34 C37 C41 C45 C49 C53 C57 C61 C65 C69 C73 C77 C81 C85 C89 C91 C102 C110 C121 C130 C141 C146 C155 C167 C177 C189 C200 C212 C223 C235 C247 C259 C271 C283 C294 C306 C317 C328 C340 C352 C363"/>
     </sheetView>
   </sheetViews>
@@ -9404,7 +9404,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9445,7 +9445,7 @@
         <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9474,7 +9474,7 @@
         <v>12345678</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9503,7 +9503,7 @@
         <v>12345678</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9532,7 +9532,7 @@
         <v>12345678</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9561,7 +9561,7 @@
         <v>12345678</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9590,7 +9590,7 @@
         <v>12345678</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9619,7 +9619,7 @@
         <v>12345678</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9648,7 +9648,7 @@
         <v>12345678</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9677,7 +9677,7 @@
         <v>12345678</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9706,7 +9706,7 @@
         <v>12345678</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9735,7 +9735,7 @@
         <v>12345678</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9764,7 +9764,7 @@
         <v>12345678</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9793,7 +9793,7 @@
         <v>12345678</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9822,7 +9822,7 @@
         <v>12345678</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9851,7 +9851,7 @@
         <v>12345678</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9880,7 +9880,7 @@
         <v>12345678</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9909,7 +9909,7 @@
         <v>12345678</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9938,7 +9938,7 @@
         <v>12345678</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9967,7 +9967,7 @@
         <v>12345678</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9996,7 +9996,7 @@
         <v>12345678</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10025,7 +10025,7 @@
         <v>12345678</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10054,7 +10054,7 @@
         <v>12345678</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10083,7 +10083,7 @@
         <v>12345678</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10112,7 +10112,7 @@
         <v>12345678</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81575D7-0B57-4360-B61F-2686487323E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE286DCA-B589-47A8-9ABE-77270D029E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="facilityInformation" sheetId="2" r:id="rId2"/>
+    <sheet name="groups" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="107">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -358,6 +359,53 @@
   </si>
   <si>
     <t>uniqueId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シメサバ薬剤師会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グッピー薬局グループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナマズ市薬剤師会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USmbgQExyc4K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N5eV8FzAPTYR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>48EG8d467xDj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DGst6QuJAqA9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキアジ薬局グループ</t>
+    <rPh sb="4" eb="6">
+      <t>ヤッキョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -805,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C569698-0060-46E3-887C-AFB1CD391720}">
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C363" activeCellId="40" sqref="C34 C37 C41 C45 C49 C53 C57 C61 C65 C69 C73 C77 C81 C85 C89 C91 C102 C110 C121 C130 C141 C146 C155 C167 C177 C189 C200 C212 C223 C235 C247 C259 C271 C283 C294 C306 C317 C328 C340 C352 C363"/>
+    <sheetView topLeftCell="A358" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9401,10 +9449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE07B90-5436-48FE-A455-AF553B34DADC}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9417,9 +9465,10 @@
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -9447,8 +9496,11 @@
       <c r="I1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -9476,8 +9528,11 @@
       <c r="I2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -9505,8 +9560,11 @@
       <c r="I3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -9534,8 +9592,11 @@
       <c r="I4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -9563,8 +9624,11 @@
       <c r="I5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -9592,8 +9656,11 @@
       <c r="I6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -9621,8 +9688,11 @@
       <c r="I7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -9650,8 +9720,11 @@
       <c r="I8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -9679,8 +9752,11 @@
       <c r="I9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -9708,8 +9784,11 @@
       <c r="I10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -9737,8 +9816,11 @@
       <c r="I11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -9766,8 +9848,11 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -9795,8 +9880,11 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -9824,8 +9912,11 @@
       <c r="I14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -9853,8 +9944,11 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9882,8 +9976,11 @@
       <c r="I16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -9911,8 +10008,11 @@
       <c r="I17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -9940,8 +10040,11 @@
       <c r="I18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -9969,8 +10072,11 @@
       <c r="I19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -9998,8 +10104,11 @@
       <c r="I20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -10027,8 +10136,11 @@
       <c r="I21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -10056,8 +10168,11 @@
       <c r="I22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -10085,8 +10200,11 @@
       <c r="I23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -10113,6 +10231,9 @@
       </c>
       <c r="I24" t="s">
         <v>94</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -10144,4 +10265,64 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BD3A25-312D-438B-8DE1-6ABBE5D84820}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE286DCA-B589-47A8-9ABE-77270D029E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915D9DF-19A3-4A6E-809A-D0671157970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="103">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -378,10 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グッピー薬局グループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナマズ市薬剤師会</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,22 +386,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N5eV8FzAPTYR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>48EG8d467xDj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DGst6QuJAqA9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキアジ薬局グループ</t>
-    <rPh sb="4" eb="6">
-      <t>ヤッキョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -853,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C569698-0060-46E3-887C-AFB1CD391720}">
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9451,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE07B90-5436-48FE-A455-AF553B34DADC}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="72" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9529,7 +9510,7 @@
         <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9561,7 +9542,7 @@
         <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9593,7 +9574,7 @@
         <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9625,7 +9606,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9657,7 +9638,7 @@
         <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9689,7 +9670,7 @@
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9721,7 +9702,7 @@
         <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9753,7 +9734,7 @@
         <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9785,7 +9766,7 @@
         <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9817,7 +9798,7 @@
         <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9881,7 +9862,7 @@
         <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9913,7 +9894,7 @@
         <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9945,7 +9926,7 @@
         <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9977,7 +9958,7 @@
         <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10009,7 +9990,7 @@
         <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10041,7 +10022,7 @@
         <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10073,7 +10054,7 @@
         <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10105,7 +10086,7 @@
         <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10137,7 +10118,7 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10169,7 +10150,7 @@
         <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10201,7 +10182,7 @@
         <v>93</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10233,7 +10214,7 @@
         <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -10269,10 +10250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BD3A25-312D-438B-8DE1-6ABBE5D84820}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10291,7 +10272,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -10299,26 +10280,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915D9DF-19A3-4A6E-809A-D0671157970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC58977C-F245-4D13-A67C-258C94E29A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -10253,7 +10253,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC58977C-F245-4D13-A67C-258C94E29A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5A283-4F52-4AF0-B771-F12248441831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="facilityInformation" sheetId="2" r:id="rId2"/>
     <sheet name="groups" sheetId="3" r:id="rId3"/>
+    <sheet name="searchGroup" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="132">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -388,6 +389,117 @@
   <si>
     <t>48EG8d467xDj</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナマズ市薬剤師会</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シメサバ薬剤師会</t>
+    <rPh sb="4" eb="8">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つくば市</t>
+  </si>
+  <si>
+    <t>参加中</t>
+  </si>
+  <si>
+    <t>内神田1-15-16-1102</t>
+  </si>
+  <si>
+    <t>白糠郡白糠町</t>
+  </si>
+  <si>
+    <t>千代田区</t>
+  </si>
+  <si>
+    <t>京都市東山区</t>
+  </si>
+  <si>
+    <t>京都市西京区</t>
+  </si>
+  <si>
+    <t>GA7wbjPdDsNC</t>
+  </si>
+  <si>
+    <t>zzwu2wePwzee</t>
+  </si>
+  <si>
+    <t>WzwD78NSBTF8</t>
+  </si>
+  <si>
+    <t>gQZsSaj3rzzz</t>
+  </si>
+  <si>
+    <t>jhPmrz4xSPbG</t>
+  </si>
+  <si>
+    <t>7wi73rtUR4wL</t>
+  </si>
+  <si>
+    <t>JQNHuP6BsgFF</t>
   </si>
 </sst>
 </file>
@@ -480,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +627,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10252,8 +10367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BD3A25-312D-438B-8DE1-6ABBE5D84820}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10290,4 +10405,209 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5142986-5A41-40C8-805C-C2543E5B63FB}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45254</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5A283-4F52-4AF0-B771-F12248441831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0EEDA1-937A-4609-BA42-C0E073EA6A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="facilityInformation" sheetId="2" r:id="rId2"/>
     <sheet name="groups" sheetId="3" r:id="rId3"/>
-    <sheet name="searchGroup" sheetId="4" r:id="rId4"/>
+    <sheet name="allGroups" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
@@ -10412,7 +10412,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0EEDA1-937A-4609-BA42-C0E073EA6A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06071E00-B70E-405D-A877-F993C5007132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="133">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -415,34 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Aグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Eグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナマズ市薬剤師会</t>
     <rPh sb="3" eb="4">
       <t>シ</t>
@@ -500,6 +472,62 @@
   </si>
   <si>
     <t>JQNHuP6BsgFF</t>
+  </si>
+  <si>
+    <t>ヨシノボリ薬剤師会</t>
+    <rPh sb="5" eb="9">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クサフグ薬剤師会</t>
+    <rPh sb="4" eb="8">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メダカ薬剤師会</t>
+    <rPh sb="3" eb="7">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャチ薬剤師会</t>
+    <rPh sb="3" eb="7">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラス薬剤師会</t>
+    <rPh sb="3" eb="7">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリ薬剤師会</t>
+    <rPh sb="2" eb="6">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニジマス薬剤師会</t>
+    <rPh sb="4" eb="8">
+      <t>ヤクザイシカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請中</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -10412,7 +10440,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10449,13 +10477,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -10464,18 +10492,18 @@
         <v>45254</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -10483,16 +10511,19 @@
       <c r="E3" s="12">
         <v>45485</v>
       </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -10503,13 +10534,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10520,13 +10551,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10534,16 +10565,19 @@
       <c r="E6" s="12">
         <v>45498</v>
       </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10554,13 +10588,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -10574,16 +10608,19 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>19</v>
       </c>
       <c r="E9" s="12">
         <v>45254</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10591,16 +10628,19 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" s="12">
         <v>45352</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06071E00-B70E-405D-A877-F993C5007132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2609A2-5F36-4895-B0A2-0D3C0AEA8F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="133">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -10440,7 +10440,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10548,6 +10548,9 @@
       <c r="E5" s="12">
         <v>45425</v>
       </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2609A2-5F36-4895-B0A2-0D3C0AEA8F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7C847-2B22-4EB1-845A-38D8565134C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="facilityInformation" sheetId="2" r:id="rId2"/>
     <sheet name="groups" sheetId="3" r:id="rId3"/>
     <sheet name="allGroups" sheetId="4" r:id="rId4"/>
+    <sheet name="groupInformation" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="146">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -527,6 +529,58 @@
     <rPh sb="0" eb="3">
       <t>シンセイチュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contactAddress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example@pharmacloud.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「ヨシノボリ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「クサフグ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「メダカ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「シャチ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「シラス薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「ブリ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「ニジマス薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「ナマズ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは。「シメサバ薬剤師会」のグループです。参加募集中。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9576,7 +9630,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10396,13 +10450,17 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="15.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10437,10 +10495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5142986-5A41-40C8-805C-C2543E5B63FB}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10450,9 +10508,11 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -10474,8 +10534,20 @@
       <c r="G1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -10495,7 +10567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -10515,7 +10587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -10532,7 +10604,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -10552,7 +10624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -10572,7 +10644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -10589,7 +10661,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -10606,7 +10678,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -10626,7 +10698,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -10646,11 +10718,239 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8CAC7C-8407-4B1C-B6CC-0796A4443AEB}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>8100001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>8100001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>8100001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>8100001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6">
+        <v>8100001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>8100001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>8100001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>8100001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>8100001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{14F5D314-2681-434C-8B2A-3E7034C6B328}"/>
+    <hyperlink ref="E3:E10" r:id="rId2" display="example@pharmacloud.jp" xr:uid="{542DACEA-872F-4B68-AE25-859337EB4D6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7C847-2B22-4EB1-845A-38D8565134C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6288665-47E9-4CE6-9CB4-1DD59A11B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="146">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -540,10 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>example@pharmacloud.jp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,6 +577,10 @@
   </si>
   <si>
     <t>こんにちは。「シメサバ薬剤師会」のグループです。参加募集中。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>810-0001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10732,7 +10732,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10747,7 +10747,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>103</v>
@@ -10772,17 +10772,17 @@
       <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="C2">
-        <v>8100001</v>
+      <c r="C2" t="s">
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10792,17 +10792,17 @@
       <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="C3">
-        <v>8100001</v>
+      <c r="C3" t="s">
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10812,17 +10812,17 @@
       <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="C4">
-        <v>8100001</v>
+      <c r="C4" t="s">
+        <v>145</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10832,17 +10832,17 @@
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="C5">
-        <v>8100001</v>
+      <c r="C5" t="s">
+        <v>145</v>
       </c>
       <c r="D5" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10852,17 +10852,17 @@
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6">
-        <v>8100001</v>
+      <c r="C6" t="s">
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10872,17 +10872,17 @@
       <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="C7">
-        <v>8100001</v>
+      <c r="C7" t="s">
+        <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10892,17 +10892,17 @@
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8">
-        <v>8100001</v>
+      <c r="C8" t="s">
+        <v>145</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10912,17 +10912,17 @@
       <c r="B9" t="s">
         <v>109</v>
       </c>
-      <c r="C9">
-        <v>8100001</v>
+      <c r="C9" t="s">
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -10932,17 +10932,17 @@
       <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="C10">
-        <v>8100001</v>
+      <c r="C10" t="s">
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6288665-47E9-4CE6-9CB4-1DD59A11B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0A1B-A032-45FD-B233-17985D59CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -10732,7 +10731,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/public/PharmacyData.xlsx
+++ b/public/PharmacyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idegu\Documents\medsearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0A1B-A032-45FD-B233-17985D59CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26B943-803E-411C-BF93-A30CF10D3A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{712CBBE7-B9DB-4B71-AB57-EDCB10FA6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="groupInformation" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilityInformation!$B$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="156">
   <si>
     <t>アジルバ錠40mg</t>
   </si>
@@ -255,22 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福岡県福岡市中央区天神</t>
-    <rPh sb="0" eb="3">
-      <t>フクオカケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フクオカシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>チュウオウク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テンジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>092-1234-5678</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,10 +344,6 @@
     <t>xv8MfvwqxNdb</t>
   </si>
   <si>
-    <t>uniqueId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>groupId</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -393,10 +373,6 @@
   </si>
   <si>
     <t>groupName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>region</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,6 +556,88 @@
   </si>
   <si>
     <t>810-0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茨城県</t>
+    <rPh sb="0" eb="3">
+      <t>イバラキケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addressLine1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addressLine2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡市</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央区天神1-1</t>
+    <rPh sb="0" eb="3">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天神ビル1階</t>
+    <rPh sb="0" eb="2">
+      <t>テンジン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1031,7 +1089,7 @@
   <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9626,819 +9684,1038 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE07B90-5436-48FE-A455-AF553B34DADC}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.9140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.9140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8100001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
         <v>12345678</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8100001</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
         <v>12345678</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8100001</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4">
+      <c r="L4">
         <v>12345678</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8100001</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
         <v>12345678</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8100001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
         <v>12345678</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8100001</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
         <v>12345678</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8100001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="K8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
+      <c r="L8">
         <v>12345678</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8100001</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9">
+      <c r="L9">
         <v>12345678</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8100001</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10">
+      <c r="L10">
         <v>12345678</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8100001</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11">
+      <c r="L11">
         <v>12345678</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8100001</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="K12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12">
+      <c r="L12">
         <v>12345678</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="J12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8100001</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="J13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
+      <c r="K13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13">
+      <c r="L13">
         <v>12345678</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
-      <c r="J13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8100001</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="s">
+      <c r="K14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14">
+      <c r="L14">
         <v>12345678</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="J14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8100001</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
+      <c r="K15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15">
+      <c r="L15">
         <v>12345678</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="J15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8100001</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
+      <c r="K16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16">
+      <c r="L16">
         <v>12345678</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="J16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>8100001</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="K17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17">
+      <c r="L17">
         <v>12345678</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="J17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>8100001</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
+      <c r="K18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18">
+      <c r="L18">
         <v>12345678</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>8100001</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="F19" t="s">
+      <c r="K19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19">
+      <c r="L19">
         <v>12345678</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="J19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>8100001</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
+      <c r="J20" t="s">
         <v>67</v>
       </c>
-      <c r="F20" t="s">
+      <c r="K20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20">
+      <c r="L20">
         <v>12345678</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>90</v>
       </c>
-      <c r="J20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8100001</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="s">
+      <c r="K21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21">
+      <c r="L21">
         <v>12345678</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>91</v>
       </c>
-      <c r="J21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8100001</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
+      <c r="J22" t="s">
         <v>67</v>
       </c>
-      <c r="F22" t="s">
+      <c r="K22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22">
+      <c r="L22">
         <v>12345678</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="J22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8100001</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="J23" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
+      <c r="K23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23">
+      <c r="L23">
         <v>12345678</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="J23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>8100001</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="J24" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
+      <c r="K24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24">
+      <c r="L24">
         <v>12345678</v>
       </c>
-      <c r="I24" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" t="s">
-        <v>102</v>
+      <c r="M24" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{4E0C9B7E-4C6E-4E9D-B276-90ED34248F13}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FBB02471-B2ED-435D-BDE5-D0FE9893493A}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{57BC9954-8872-4E4A-929A-8E65C9B7E81F}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{DBBA4437-8B6B-44F5-BCEA-FFF8C3698352}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{ADBB9A70-339B-4E8F-86D8-BAAD9EAC58F7}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{E36299F4-32DE-437D-8F33-26E4DD565FFF}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{AE7D1B51-5F0A-4F85-94B3-B0FB9AF7BBDE}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{6702AEB7-DD4E-47C8-8B62-EF584B1A5BA1}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{63312ECA-15A7-4022-AB71-1EE08D087A84}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{DCE9321A-1E73-41A8-BA2D-4EDAB71DAE82}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{D8A61E60-6D61-488B-A1F2-B513812DA4F0}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{B01C9482-FC7E-41AE-8A15-533414ED7177}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{DBA1A5CF-6344-4CE4-AB2D-FC82800A5B30}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{11DC839F-C069-4584-B112-6E701F6BB943}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{0AA82084-EF5F-41A3-B586-851C5DEEA249}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{17E8E314-CC16-4232-9D35-025CAF65BC2D}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{A98C629F-DC90-40C9-97DB-CC1B84C529B0}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{8D779A8C-FD3D-4358-BF34-2E647FBD4179}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{08E49D38-2040-48C7-A4BF-DA7B2225E8F9}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{ED1A8ABB-6052-4F6F-A9B9-AB0838F2F06D}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{B1A7A6D1-EFFA-40DC-9F79-1E90499851B8}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{DE6203F1-1CA3-43BF-AE88-F57DD7692BA3}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{D22C86CA-6AD5-4546-824A-8A052F9D57C8}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{4E0C9B7E-4C6E-4E9D-B276-90ED34248F13}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{FBB02471-B2ED-435D-BDE5-D0FE9893493A}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{57BC9954-8872-4E4A-929A-8E65C9B7E81F}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{DBBA4437-8B6B-44F5-BCEA-FFF8C3698352}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{ADBB9A70-339B-4E8F-86D8-BAAD9EAC58F7}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{E36299F4-32DE-437D-8F33-26E4DD565FFF}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{AE7D1B51-5F0A-4F85-94B3-B0FB9AF7BBDE}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{6702AEB7-DD4E-47C8-8B62-EF584B1A5BA1}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{63312ECA-15A7-4022-AB71-1EE08D087A84}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{DCE9321A-1E73-41A8-BA2D-4EDAB71DAE82}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{D8A61E60-6D61-488B-A1F2-B513812DA4F0}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{B01C9482-FC7E-41AE-8A15-533414ED7177}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{DBA1A5CF-6344-4CE4-AB2D-FC82800A5B30}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{11DC839F-C069-4584-B112-6E701F6BB943}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{0AA82084-EF5F-41A3-B586-851C5DEEA249}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{17E8E314-CC16-4232-9D35-025CAF65BC2D}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{A98C629F-DC90-40C9-97DB-CC1B84C529B0}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{8D779A8C-FD3D-4358-BF34-2E647FBD4179}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{08E49D38-2040-48C7-A4BF-DA7B2225E8F9}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{ED1A8ABB-6052-4F6F-A9B9-AB0838F2F06D}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{B1A7A6D1-EFFA-40DC-9F79-1E90499851B8}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{DE6203F1-1CA3-43BF-AE88-F57DD7692BA3}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{D22C86CA-6AD5-4546-824A-8A052F9D57C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10464,26 +10741,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10494,231 +10771,262 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5142986-5A41-40C8-805C-C2543E5B63FB}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45485</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45425</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45498</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45254</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45254</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>45485</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>45425</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>45498</v>
-      </c>
-      <c r="F6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8" s="12">
-        <v>45254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45352</v>
+      </c>
+      <c r="G10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12">
-        <v>45254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12">
-        <v>45352</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10728,227 +11036,257 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8CAC7C-8407-4B1C-B6CC-0796A4443AEB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.75" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{14F5D314-2681-434C-8B2A-3E7034C6B328}"/>
-    <hyperlink ref="E3:E10" r:id="rId2" display="example@pharmacloud.jp" xr:uid="{542DACEA-872F-4B68-AE25-859337EB4D6D}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{14F5D314-2681-434C-8B2A-3E7034C6B328}"/>
+    <hyperlink ref="F3:F10" r:id="rId2" display="example@pharmacloud.jp" xr:uid="{542DACEA-872F-4B68-AE25-859337EB4D6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
